--- a/reporte_estadistico/data/gas/metrics_data_vcon.xlsx
+++ b/reporte_estadistico/data/gas/metrics_data_vcon.xlsx
@@ -1,21 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\JJ\repos\research_eslatina\reporte_estadistico\data\gas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="236" yWindow="13" windowWidth="16089" windowHeight="9661"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quant0</t>
+  </si>
+  <si>
+    <t>quant25</t>
+  </si>
+  <si>
+    <t>quant50</t>
+  </si>
+  <si>
+    <t>quant75</t>
+  </si>
+  <si>
+    <t>quant100</t>
+  </si>
+  <si>
+    <t>skewness</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>std_dev</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Estrato1_vcon</t>
+  </si>
+  <si>
+    <t>Estrato2_vcon</t>
+  </si>
+  <si>
+    <t>Estrato3_vcon</t>
+  </si>
+  <si>
+    <t>Estrato4_vcon</t>
+  </si>
+  <si>
+    <t>Estrato5_vcon</t>
+  </si>
+  <si>
+    <t>Estrato6_vcon</t>
+  </si>
+  <si>
+    <t>totResidencial_vcon</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +130,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +216,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,95 +427,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>quant0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>quant25</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>quant50</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>quant75</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>quant100</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>skewness</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>std_dev</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>variance</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Estrato1_vcon</t>
-        </is>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0.10803</v>
       </c>
       <c r="C2">
-        <v>57.311022</v>
+        <v>57.311022000000001</v>
       </c>
       <c r="D2">
         <v>227.82683025</v>
       </c>
       <c r="E2">
-        <v>699.934383</v>
+        <v>699.93438300000003</v>
       </c>
       <c r="F2">
-        <v>74404.585895</v>
+        <v>74404.585894999997</v>
       </c>
       <c r="G2">
         <v>1.386587907786438</v>
@@ -450,20 +501,18 @@
         <v>227.82683025</v>
       </c>
       <c r="J2">
-        <v>4275.215036945288</v>
+        <v>4275.2150369452884</v>
       </c>
       <c r="K2">
-        <v>18277463.61212311</v>
+        <v>18277463.612123109</v>
       </c>
       <c r="L2">
-        <v>1100.824367124119</v>
+        <v>1100.8243671241189</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Estrato2_vcon</t>
-        </is>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -475,22 +524,22 @@
         <v>305.804597</v>
       </c>
       <c r="E3">
-        <v>778.56083031</v>
+        <v>778.56083031000003</v>
       </c>
       <c r="F3">
-        <v>289412.87229</v>
+        <v>289412.87229000003</v>
       </c>
       <c r="G3">
         <v>1.7369188977331</v>
       </c>
       <c r="H3">
-        <v>5.55229854586219</v>
+        <v>5.5522985458621896</v>
       </c>
       <c r="I3">
         <v>305.804597</v>
       </c>
       <c r="J3">
-        <v>11465.73494539621</v>
+        <v>11465.734945396211</v>
       </c>
       <c r="K3">
         <v>131463077.8380799</v>
@@ -499,29 +548,27 @@
         <v>1714.697464986848</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Estrato3_vcon</t>
-        </is>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.86125664</v>
+        <v>0.86125664000000002</v>
       </c>
       <c r="D4">
         <v>23.979861</v>
       </c>
       <c r="E4">
-        <v>187.44126798</v>
+        <v>187.44126797999999</v>
       </c>
       <c r="F4">
-        <v>214314.850478</v>
+        <v>214314.85047800001</v>
       </c>
       <c r="G4">
-        <v>2.470578957100226</v>
+        <v>2.4705789571002259</v>
       </c>
       <c r="H4">
         <v>8.982879572148633</v>
@@ -533,17 +580,15 @@
         <v>8413.355732738637</v>
       </c>
       <c r="K4">
-        <v>70784554.68560608</v>
+        <v>70784554.685606077</v>
       </c>
       <c r="L4">
-        <v>934.3955734817351</v>
+        <v>934.39557348173514</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Estrato4_vcon</t>
-        </is>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -555,16 +600,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.326838105</v>
+        <v>4.3268381050000002</v>
       </c>
       <c r="F5">
-        <v>96653.25241099999</v>
+        <v>96653.252410999994</v>
       </c>
       <c r="G5">
-        <v>4.129976104931004</v>
+        <v>4.1299761049310044</v>
       </c>
       <c r="H5">
-        <v>21.86821314951298</v>
+        <v>21.868213149512979</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -576,14 +621,12 @@
         <v>14017791.47190191</v>
       </c>
       <c r="L5">
-        <v>347.3351057654305</v>
+        <v>347.33510576543051</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Estrato5_vcon</t>
-        </is>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -598,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39544.444305</v>
+        <v>39544.444304999997</v>
       </c>
       <c r="G6">
-        <v>6.238905146686876</v>
+        <v>6.2389051466868759</v>
       </c>
       <c r="H6">
-        <v>45.7178186717452</v>
+        <v>45.717818671745199</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -616,14 +659,12 @@
         <v>2907297.855706152</v>
       </c>
       <c r="L6">
-        <v>151.9320658658675</v>
+        <v>151.93206586586749</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Estrato6_vcon</t>
-        </is>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -638,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>45542.538789</v>
+        <v>45542.538788999998</v>
       </c>
       <c r="G7">
         <v>12.58904867297016</v>
@@ -650,23 +691,21 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1832.673305195622</v>
+        <v>1832.6733051956221</v>
       </c>
       <c r="K7">
         <v>3358691.443576647</v>
       </c>
       <c r="L7">
-        <v>135.8983648823709</v>
+        <v>135.89836488237091</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>totResidencial_vcon</t>
-        </is>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>5.542557980000001</v>
+        <v>5.5425579800000007</v>
       </c>
       <c r="C8">
         <v>275.1924515</v>
@@ -678,13 +717,13 @@
         <v>1681.536910435</v>
       </c>
       <c r="F8">
-        <v>759872.544168</v>
+        <v>759872.54416799999</v>
       </c>
       <c r="G8">
         <v>1.948878674118234</v>
       </c>
       <c r="H8">
-        <v>6.877786651381918</v>
+        <v>6.8777866513819177</v>
       </c>
       <c r="I8">
         <v>677.511799</v>
@@ -693,10 +732,10 @@
         <v>30481.51539318361</v>
       </c>
       <c r="K8">
-        <v>929122780.6648892</v>
+        <v>929122780.66488922</v>
       </c>
       <c r="L8">
-        <v>4385.082942106371</v>
+        <v>4385.0829421063709</v>
       </c>
     </row>
   </sheetData>
